--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -10,56 +10,14 @@
     <sheet name="Аркуш1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Аркуш1!$A$1:$M$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Аркуш1!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Код платника</t>
-  </si>
-  <si>
-    <t>{tin}</t>
-  </si>
-  <si>
-    <t>Дата 2</t>
-  </si>
-  <si>
-    <t>Дата 1</t>
-  </si>
-  <si>
-    <t>{dt1}</t>
-  </si>
-  <si>
-    <t>{dt2}</t>
-  </si>
-  <si>
-    <t>[kontr_tin]</t>
-  </si>
-  <si>
-    <t>[kontr_nom]</t>
-  </si>
-  <si>
-    <t>[kontr_n]</t>
-  </si>
-  <si>
-    <t>[kontr_sti]</t>
-  </si>
-  <si>
-    <t>[kontr_name]</t>
-  </si>
-  <si>
-    <t>[kontr_vids]</t>
-  </si>
-  <si>
-    <t>[kontr_obs]</t>
-  </si>
-  <si>
-    <t>[kontr_pdv]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ДПІ</t>
   </si>
@@ -87,10 +45,94 @@
 тис. грн.</t>
   </si>
   <si>
-    <t>{kontr_obs_sum}</t>
-  </si>
-  <si>
-    <t>{kontr_pdv_sum}</t>
+    <t>{r21taxpay.name}</t>
+  </si>
+  <si>
+    <t>Код платника {tin}</t>
+  </si>
+  <si>
+    <t>Період {dt1} - {dt2}</t>
+  </si>
+  <si>
+    <t>Основний КВЕД</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Адреса</t>
+  </si>
+  <si>
+    <t>Стан</t>
+  </si>
+  <si>
+    <t>{r21taxpay.stan}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.kved} - {r21taxpay.kved_name}</t>
+  </si>
+  <si>
+    <t>{r21manager.dir} {r21manager.dir_tel}</t>
+  </si>
+  <si>
+    <t>{r21manager.buh} {r21manager.buh_tel}</t>
+  </si>
+  <si>
+    <t>{r21paddr.address}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.c_distr}</t>
+  </si>
+  <si>
+    <t>[kontr.n]</t>
+  </si>
+  <si>
+    <t>[kontr.sti]</t>
+  </si>
+  <si>
+    <t>[kontr.tin]</t>
+  </si>
+  <si>
+    <t>[kontr.name]</t>
+  </si>
+  <si>
+    <t>[kontr.vids]</t>
+  </si>
+  <si>
+    <t>[kontr.obs]</t>
+  </si>
+  <si>
+    <t>[kontr.pdv]</t>
+  </si>
+  <si>
+    <t>[kontr.nom]</t>
+  </si>
+  <si>
+    <t>{kontr.obs_sum}</t>
+  </si>
+  <si>
+    <t>{kontr.pdv_sum}</t>
+  </si>
+  <si>
+    <t>Назва платника</t>
+  </si>
+  <si>
+    <t>{r21taxpay.stan_name}</t>
+  </si>
+  <si>
+    <t>Дата реє в ДПІ</t>
+  </si>
+  <si>
+    <t>Дата реє ПДВ</t>
+  </si>
+  <si>
+    <t>{r21taxpay.d_reg_sti}</t>
+  </si>
+  <si>
+    <t>{pdv_act_r.dat_reestr}</t>
   </si>
 </sst>
 </file>
@@ -157,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -170,6 +212,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,110 +535,165 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M12"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="59.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="85.42578125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="6" t="s">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>ДПІ</t>
   </si>
@@ -87,36 +87,6 @@
     <t>{r21taxpay.c_distr}</t>
   </si>
   <si>
-    <t>[kontr.n]</t>
-  </si>
-  <si>
-    <t>[kontr.sti]</t>
-  </si>
-  <si>
-    <t>[kontr.tin]</t>
-  </si>
-  <si>
-    <t>[kontr.name]</t>
-  </si>
-  <si>
-    <t>[kontr.vids]</t>
-  </si>
-  <si>
-    <t>[kontr.obs]</t>
-  </si>
-  <si>
-    <t>[kontr.pdv]</t>
-  </si>
-  <si>
-    <t>[kontr.nom]</t>
-  </si>
-  <si>
-    <t>{kontr.obs_sum}</t>
-  </si>
-  <si>
-    <t>{kontr.pdv_sum}</t>
-  </si>
-  <si>
     <t>Назва платника</t>
   </si>
   <si>
@@ -133,6 +103,66 @@
   </si>
   <si>
     <t>{pdv_act_r.dat_reestr}</t>
+  </si>
+  <si>
+    <t>[kontr1.n]</t>
+  </si>
+  <si>
+    <t>[kontr1.sti]</t>
+  </si>
+  <si>
+    <t>[kontr1.tin]</t>
+  </si>
+  <si>
+    <t>[kontr1.name]</t>
+  </si>
+  <si>
+    <t>[kontr1.vids]</t>
+  </si>
+  <si>
+    <t>[kontr1.obs]</t>
+  </si>
+  <si>
+    <t>[kontr1.pdv]</t>
+  </si>
+  <si>
+    <t>[kontr1.nom]</t>
+  </si>
+  <si>
+    <t>{kontr1.obs_sum}</t>
+  </si>
+  <si>
+    <t>{kontr1.pdv_sum}</t>
+  </si>
+  <si>
+    <t>[kontr2.n]</t>
+  </si>
+  <si>
+    <t>[kontr2.sti]</t>
+  </si>
+  <si>
+    <t>[kontr2.tin]</t>
+  </si>
+  <si>
+    <t>[kontr2.name]</t>
+  </si>
+  <si>
+    <t>[kontr2.vids]</t>
+  </si>
+  <si>
+    <t>[kontr2.obs]</t>
+  </si>
+  <si>
+    <t>[kontr2.pdv]</t>
+  </si>
+  <si>
+    <t>[kontr2.nom]</t>
+  </si>
+  <si>
+    <t>{kontr2.obs_sum}</t>
+  </si>
+  <si>
+    <t>{kontr2.pdv_sum}</t>
   </si>
 </sst>
 </file>
@@ -535,9 +565,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -576,7 +608,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>8</v>
@@ -597,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" t="s">
@@ -609,10 +641,10 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -623,10 +655,10 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -657,36 +689,96 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="4" r:id="rId1"/>
+    <sheet name="Головна" sheetId="5" r:id="rId1"/>
+    <sheet name="Стани" sheetId="6" r:id="rId2"/>
+    <sheet name="Контрагенти" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Аркуш1!$A$1:$H$14</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>ДПІ</t>
   </si>
@@ -29,9 +28,6 @@
   </si>
   <si>
     <t>№</t>
-  </si>
-  <si>
-    <t>ВІДСОТОК</t>
   </si>
   <si>
     <t>НОМЕНКЛАТУРА</t>
@@ -48,12 +44,6 @@
     <t>{r21taxpay.name}</t>
   </si>
   <si>
-    <t>Код платника {tin}</t>
-  </si>
-  <si>
-    <t>Період {dt1} - {dt2}</t>
-  </si>
-  <si>
     <t>Основний КВЕД</t>
   </si>
   <si>
@@ -72,15 +62,6 @@
     <t>{r21taxpay.stan}</t>
   </si>
   <si>
-    <t>{r21taxpay.kved} - {r21taxpay.kved_name}</t>
-  </si>
-  <si>
-    <t>{r21manager.dir} {r21manager.dir_tel}</t>
-  </si>
-  <si>
-    <t>{r21manager.buh} {r21manager.buh_tel}</t>
-  </si>
-  <si>
     <t>{r21paddr.address}</t>
   </si>
   <si>
@@ -163,6 +144,78 @@
   </si>
   <si>
     <t>{kontr2.pdv_sum}</t>
+  </si>
+  <si>
+    <t>Контрагенти - кредит</t>
+  </si>
+  <si>
+    <t>Код платника</t>
+  </si>
+  <si>
+    <t>{tin}</t>
+  </si>
+  <si>
+    <t>Період</t>
+  </si>
+  <si>
+    <t>{dt1} - {dt2}</t>
+  </si>
+  <si>
+    <t>Контрагенти - зобов’язання</t>
+  </si>
+  <si>
+    <t>{r21taxpay.kved_name}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.kved}</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>{r21manager.buh}</t>
+  </si>
+  <si>
+    <t>{r21manager.buh_tel}</t>
+  </si>
+  <si>
+    <t>{r21manager.dir}</t>
+  </si>
+  <si>
+    <t>{r21manager.dir_tel}</t>
+  </si>
+  <si>
+    <t>Історія станів</t>
+  </si>
+  <si>
+    <t>Новий 
+стан</t>
+  </si>
+  <si>
+    <t>Дата 
+зміни</t>
+  </si>
+  <si>
+    <t>[r21stan_h.n]</t>
+  </si>
+  <si>
+    <t>[r21stan_h.dt]</t>
+  </si>
+  <si>
+    <t>[r21stan_h.new]</t>
+  </si>
+  <si>
+    <t>[r21stan_h.old]</t>
+  </si>
+  <si>
+    <t>[r21stan_h.act]</t>
+  </si>
+  <si>
+    <t>Актуальність</t>
+  </si>
+  <si>
+    <t>Попередній 
+стан</t>
   </si>
 </sst>
 </file>
@@ -188,21 +241,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,13 +272,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,13 +303,29 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -565,228 +640,342 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H18"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="98.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="8" t="s">
-        <v>10</v>
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
-    <sheet name="Стани" sheetId="6" r:id="rId2"/>
-    <sheet name="Контрагенти" sheetId="4" r:id="rId3"/>
+    <sheet name="Контрагенти" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -211,11 +210,11 @@
     <t>[r21stan_h.act]</t>
   </si>
   <si>
-    <t>Актуальність</t>
-  </si>
-  <si>
     <t>Попередній 
 стан</t>
+  </si>
+  <si>
+    <t>Діючий</t>
   </si>
 </sst>
 </file>
@@ -289,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,29 +302,48 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -640,184 +658,211 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:D14"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D7:J7"/>
+  </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -839,7 +884,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -910,7 +955,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>47</v>
       </c>
     </row>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
     <sheet name="Контрагенти" sheetId="4" r:id="rId2"/>
+    <sheet name="Баланс" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>ДПІ</t>
   </si>
@@ -85,66 +86,6 @@
     <t>{pdv_act_r.dat_reestr}</t>
   </si>
   <si>
-    <t>[kontr1.n]</t>
-  </si>
-  <si>
-    <t>[kontr1.sti]</t>
-  </si>
-  <si>
-    <t>[kontr1.tin]</t>
-  </si>
-  <si>
-    <t>[kontr1.name]</t>
-  </si>
-  <si>
-    <t>[kontr1.vids]</t>
-  </si>
-  <si>
-    <t>[kontr1.obs]</t>
-  </si>
-  <si>
-    <t>[kontr1.pdv]</t>
-  </si>
-  <si>
-    <t>[kontr1.nom]</t>
-  </si>
-  <si>
-    <t>{kontr1.obs_sum}</t>
-  </si>
-  <si>
-    <t>{kontr1.pdv_sum}</t>
-  </si>
-  <si>
-    <t>[kontr2.n]</t>
-  </si>
-  <si>
-    <t>[kontr2.sti]</t>
-  </si>
-  <si>
-    <t>[kontr2.tin]</t>
-  </si>
-  <si>
-    <t>[kontr2.name]</t>
-  </si>
-  <si>
-    <t>[kontr2.vids]</t>
-  </si>
-  <si>
-    <t>[kontr2.obs]</t>
-  </si>
-  <si>
-    <t>[kontr2.pdv]</t>
-  </si>
-  <si>
-    <t>[kontr2.nom]</t>
-  </si>
-  <si>
-    <t>{kontr2.obs_sum}</t>
-  </si>
-  <si>
-    <t>{kontr2.pdv_sum}</t>
-  </si>
-  <si>
     <t>Контрагенти - кредит</t>
   </si>
   <si>
@@ -195,33 +136,210 @@
 зміни</t>
   </si>
   <si>
-    <t>[r21stan_h.n]</t>
-  </si>
-  <si>
-    <t>[r21stan_h.dt]</t>
-  </si>
-  <si>
-    <t>[r21stan_h.new]</t>
-  </si>
-  <si>
-    <t>[r21stan_h.old]</t>
-  </si>
-  <si>
-    <t>[r21stan_h.act]</t>
-  </si>
-  <si>
     <t>Попередній 
 стан</t>
   </si>
   <si>
     <t>Діючий</t>
+  </si>
+  <si>
+    <t>Рік</t>
+  </si>
+  <si>
+    <t>Місяць</t>
+  </si>
+  <si>
+    <t>Дата подання</t>
+  </si>
+  <si>
+    <t>№ декларації</t>
+  </si>
+  <si>
+    <t>1_Активи А1300</t>
+  </si>
+  <si>
+    <t>1_Активи Б1300</t>
+  </si>
+  <si>
+    <t>2_Пасиви А1495</t>
+  </si>
+  <si>
+    <t>2_Пасиви А1B95</t>
+  </si>
+  <si>
+    <t>3_Довгострокові зобов'язання А1595</t>
+  </si>
+  <si>
+    <t>3_Довгострокові зобов'язання Б1595</t>
+  </si>
+  <si>
+    <t>4_Поточні зобов'язання А1695</t>
+  </si>
+  <si>
+    <t>4_Поточні зобов'язання Б1695</t>
+  </si>
+  <si>
+    <t>5_Інші зобов'язання А1700</t>
+  </si>
+  <si>
+    <t>5_Інші зобов'язання Б1700</t>
+  </si>
+  <si>
+    <t>6_НПФ А1800</t>
+  </si>
+  <si>
+    <t>6_НПФ Б1800</t>
+  </si>
+  <si>
+    <t>7_Баланс А1900</t>
+  </si>
+  <si>
+    <t>7_Баланс Б1900</t>
+  </si>
+  <si>
+    <t>[C_STI]</t>
+  </si>
+  <si>
+    <t>[PERIOD_YEAR]</t>
+  </si>
+  <si>
+    <t>[PERIOD_MONTH]</t>
+  </si>
+  <si>
+    <t>[D_GET]</t>
+  </si>
+  <si>
+    <t>[N_REG]</t>
+  </si>
+  <si>
+    <t>[A1300]</t>
+  </si>
+  <si>
+    <t>[B1300]</t>
+  </si>
+  <si>
+    <t>[A1495]</t>
+  </si>
+  <si>
+    <t>[B1495]</t>
+  </si>
+  <si>
+    <t>[A1595]</t>
+  </si>
+  <si>
+    <t>[B1595]</t>
+  </si>
+  <si>
+    <t>[A1695]</t>
+  </si>
+  <si>
+    <t>[B1695]</t>
+  </si>
+  <si>
+    <t>[A1700]</t>
+  </si>
+  <si>
+    <t>[B1700]</t>
+  </si>
+  <si>
+    <t>[A1800]</t>
+  </si>
+  <si>
+    <t>[B1800]</t>
+  </si>
+  <si>
+    <t>[A1900]</t>
+  </si>
+  <si>
+    <t>[B1900]</t>
+  </si>
+  <si>
+    <t>Баланс</t>
+  </si>
+  <si>
+    <t>[SH.N]</t>
+  </si>
+  <si>
+    <t>[SH.OLD_STAN]</t>
+  </si>
+  <si>
+    <t>[SH.NEW_STAN]</t>
+  </si>
+  <si>
+    <t>[SH.D_CHANGE]</t>
+  </si>
+  <si>
+    <t>[SH.IS_ACTUAL]</t>
+  </si>
+  <si>
+    <t>[T1.N]</t>
+  </si>
+  <si>
+    <t>[T1.STI]</t>
+  </si>
+  <si>
+    <t>{T1.OBS_SUM}</t>
+  </si>
+  <si>
+    <t>{T1.PDV_SUM}</t>
+  </si>
+  <si>
+    <t>{T2.OBS_SUM}</t>
+  </si>
+  <si>
+    <t>{T2.PDV_SUM}</t>
+  </si>
+  <si>
+    <t>[T1.TIN]</t>
+  </si>
+  <si>
+    <t>[T1.NAME]</t>
+  </si>
+  <si>
+    <t>[T1.VIDS]</t>
+  </si>
+  <si>
+    <t>[T1.OBS]</t>
+  </si>
+  <si>
+    <t>[T1.PDV]</t>
+  </si>
+  <si>
+    <t>[T1.NOM]</t>
+  </si>
+  <si>
+    <t>[T2.N]</t>
+  </si>
+  <si>
+    <t>[T2.STI]</t>
+  </si>
+  <si>
+    <t>[T2.NAME]</t>
+  </si>
+  <si>
+    <t>[T2.VIDS]</t>
+  </si>
+  <si>
+    <t>[T2.OBS]</t>
+  </si>
+  <si>
+    <t>[T2.PDV]</t>
+  </si>
+  <si>
+    <t>[T2.NOM]</t>
+  </si>
+  <si>
+    <t>[T2.CP_TIN]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +356,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,9 +458,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -341,6 +470,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -660,7 +804,7 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -674,18 +818,18 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,15 +845,15 @@
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -718,15 +862,15 @@
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -749,103 +893,103 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="15" t="s">
-        <v>55</v>
+      <c r="E16" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>64</v>
+      <c r="B18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>62</v>
+      <c r="A19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +1013,7 @@
   </sheetPr>
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -885,7 +1029,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -902,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -916,36 +1060,36 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -956,7 +1100,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -973,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
@@ -987,40 +1131,188 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
@@ -804,11 +804,11 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
@@ -1013,7 +1013,7 @@
   </sheetPr>
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
     <sheet name="Контрагенти" sheetId="4" r:id="rId2"/>
     <sheet name="Баланс" sheetId="6" r:id="rId3"/>
+    <sheet name="Прибуток" sheetId="7" r:id="rId4"/>
+    <sheet name="ЄСВ" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>ДПІ</t>
   </si>
@@ -330,14 +332,73 @@
   </si>
   <si>
     <t>[T2.CP_TIN]</t>
+  </si>
+  <si>
+    <t>[TIN]</t>
+  </si>
+  <si>
+    <t>[TYP]</t>
+  </si>
+  <si>
+    <t>[P01]</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Р01</t>
+  </si>
+  <si>
+    <t>Прибуток (річна)</t>
+  </si>
+  <si>
+    <t>тис.грн.</t>
+  </si>
+  <si>
+    <t>К-ть</t>
+  </si>
+  <si>
+    <t>ЄСВ</t>
+  </si>
+  <si>
+    <t>[R1]</t>
+  </si>
+  <si>
+    <t>[SHTAT]</t>
+  </si>
+  <si>
+    <t>[SER_ZP]</t>
+  </si>
+  <si>
+    <t>Фонд
+оплати
+праці, грн</t>
+  </si>
+  <si>
+    <t>[PERIOD]</t>
+  </si>
+  <si>
+    <t>Середня
+заробітна
+плата</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -358,18 +419,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,9 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -474,17 +533,30 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -828,7 +900,7 @@
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -845,15 +917,15 @@
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -862,15 +934,15 @@
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -892,103 +964,103 @@
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1011,7 +1083,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1027,139 +1099,139 @@
     <col min="8" max="8" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1194,120 +1266,120 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1315,4 +1387,144 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Баланс" sheetId="6" r:id="rId3"/>
     <sheet name="Прибуток" sheetId="7" r:id="rId4"/>
     <sheet name="ЄСВ" sheetId="8" r:id="rId5"/>
+    <sheet name="Пов’язані" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
   <si>
     <t>ДПІ</t>
   </si>
@@ -390,6 +391,75 @@
     <t>Середня
 заробітна
 плата</t>
+  </si>
+  <si>
+    <t>Дана юр особа є засновником інших юр.осіб</t>
+  </si>
+  <si>
+    <t>Назва</t>
+  </si>
+  <si>
+    <t>Пов’язані серед посадових осіб</t>
+  </si>
+  <si>
+    <t>РНОКПП</t>
+  </si>
+  <si>
+    <t>ПІБ</t>
+  </si>
+  <si>
+    <t>Посада</t>
+  </si>
+  <si>
+    <t>ЄДРПОУ</t>
+  </si>
+  <si>
+    <t>Пов’язані серед засновників</t>
+  </si>
+  <si>
+    <t>[T2.PIN]</t>
+  </si>
+  <si>
+    <t>[T2.TYP]</t>
+  </si>
+  <si>
+    <t>[T2.POST_NAME]</t>
+  </si>
+  <si>
+    <t>[T2.TIN]</t>
+  </si>
+  <si>
+    <t>[T2.UR_NAME]</t>
+  </si>
+  <si>
+    <t>[T2.C_STAN]</t>
+  </si>
+  <si>
+    <t>[T3.PIN]</t>
+  </si>
+  <si>
+    <t>[T3.NAME]</t>
+  </si>
+  <si>
+    <t>[T3.TYP]</t>
+  </si>
+  <si>
+    <t>[T3.POST_NAME]</t>
+  </si>
+  <si>
+    <t>[T3.TIN]</t>
+  </si>
+  <si>
+    <t>[T3.UR_NAME]</t>
+  </si>
+  <si>
+    <t>[T3.C_STAN]</t>
+  </si>
+  <si>
+    <t>[T1.C_STAN]</t>
+  </si>
+  <si>
+    <t>[T1.C_DISTR]</t>
   </si>
 </sst>
 </file>
@@ -482,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +630,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -876,7 +949,7 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1527,4 +1600,163 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
   <si>
     <t>ДПІ</t>
   </si>
@@ -460,6 +460,39 @@
   </si>
   <si>
     <t>[T1.C_DISTR]</t>
+  </si>
+  <si>
+    <t>Пов’язані серед ФОП</t>
+  </si>
+  <si>
+    <t>[T3.C_DISTR]</t>
+  </si>
+  <si>
+    <t>[T2.C_DISTR]</t>
+  </si>
+  <si>
+    <t>[T4.C_DISTR]</t>
+  </si>
+  <si>
+    <t>[T4.TIN]</t>
+  </si>
+  <si>
+    <t>[T4.NAME]</t>
+  </si>
+  <si>
+    <t>[T4.C_STAN]</t>
+  </si>
+  <si>
+    <t>[T4.POST_NAME]</t>
+  </si>
+  <si>
+    <t>[T4.TYP]</t>
+  </si>
+  <si>
+    <t>[T4.PIN]</t>
+  </si>
+  <si>
+    <t>[T1.BLANK]</t>
   </si>
 </sst>
 </file>
@@ -504,12 +537,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -552,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,15 +663,23 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -949,7 +996,9 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -990,15 +1039,15 @@
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1007,15 +1056,15 @@
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -1040,15 +1089,15 @@
       <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
@@ -1057,29 +1106,29 @@
       <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -1088,15 +1137,15 @@
       <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="18" t="s">
@@ -1158,7 +1207,9 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1203,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -1607,152 +1658,239 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="29"/>
+      <c r="E2" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="33" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="F4" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="I7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="32" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="H11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="G15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="I15" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>141</v>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t>ДПІ</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Тип</t>
-  </si>
-  <si>
-    <t>Р01</t>
   </si>
   <si>
     <t>Прибуток (річна)</t>
@@ -414,9 +411,6 @@
     <t>ЄДРПОУ</t>
   </si>
   <si>
-    <t>Пов’язані серед засновників</t>
-  </si>
-  <si>
     <t>[T2.PIN]</t>
   </si>
   <si>
@@ -471,28 +465,85 @@
     <t>[T2.C_DISTR]</t>
   </si>
   <si>
+    <t>[T1.BLANK]</t>
+  </si>
+  <si>
+    <t>[T5.C_DISTR]</t>
+  </si>
+  <si>
+    <t>[T5.TIN]</t>
+  </si>
+  <si>
+    <t>[T5.NAME]</t>
+  </si>
+  <si>
+    <t>[T5.C_STAN]</t>
+  </si>
+  <si>
+    <t>[T5.POST_NAME]</t>
+  </si>
+  <si>
+    <t>[T5.TYP]</t>
+  </si>
+  <si>
+    <t>[T5.PIN]</t>
+  </si>
+  <si>
+    <t>Пов’язані серед засновників  - юр.осіб</t>
+  </si>
+  <si>
+    <t>Пов’язані серед засновників - фіз.осіб</t>
+  </si>
+  <si>
     <t>[T4.C_DISTR]</t>
   </si>
   <si>
     <t>[T4.TIN]</t>
   </si>
   <si>
+    <t>[T4.UR_NAME]</t>
+  </si>
+  <si>
+    <t>[T4.C_STAN]</t>
+  </si>
+  <si>
+    <t>[T4.POST_NAME]</t>
+  </si>
+  <si>
+    <t>[T4.TYP]</t>
+  </si>
+  <si>
+    <t>[T4.PIN]</t>
+  </si>
+  <si>
     <t>[T4.NAME]</t>
   </si>
   <si>
-    <t>[T4.C_STAN]</t>
-  </si>
-  <si>
-    <t>[T4.POST_NAME]</t>
-  </si>
-  <si>
-    <t>[T4.TYP]</t>
-  </si>
-  <si>
-    <t>[T4.PIN]</t>
-  </si>
-  <si>
-    <t>[T1.BLANK]</t>
+    <t>[P03]</t>
+  </si>
+  <si>
+    <t>[P04]</t>
+  </si>
+  <si>
+    <t>[P06]</t>
+  </si>
+  <si>
+    <t>[VIDDACHA]</t>
+  </si>
+  <si>
+    <t>Дохід (р01)</t>
+  </si>
+  <si>
+    <t>Різниці (р03)</t>
+  </si>
+  <si>
+    <t>Податок на прибуток (р06)</t>
+  </si>
+  <si>
+    <t>Податкова віддача (р06/р01)*100</t>
+  </si>
+  <si>
+    <t>Об’єкт оподаткування (р04)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +554,7 @@
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +582,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -591,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,10 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,12 +728,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -680,6 +738,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -996,9 +1074,7 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1039,15 +1115,15 @@
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1056,15 +1132,15 @@
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -1089,15 +1165,15 @@
       <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
@@ -1106,29 +1182,29 @@
       <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -1137,15 +1213,15 @@
       <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="18" t="s">
@@ -1207,9 +1283,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1264,7 +1338,7 @@
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1335,7 +1409,7 @@
       <c r="C10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="32" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1381,7 +1455,9 @@
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" customWidth="1"/>
     <col min="13" max="14" width="10.85546875" customWidth="1"/>
+    <col min="19" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -1390,61 +1466,61 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1518,33 +1594,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="7.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="19" customWidth="1"/>
+    <col min="10" max="11" width="11" style="19" customWidth="1"/>
+    <col min="12" max="13" width="10" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="7" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>40</v>
       </c>
@@ -1566,34 +1646,58 @@
       <c r="H4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="I4" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="37" t="s">
         <v>105</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1720,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1624,27 +1728,27 @@
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1658,9 +1762,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1676,9 +1780,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="29"/>
+      <c r="C2" s="27"/>
       <c r="E2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1689,42 +1793,42 @@
         <v>106</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>154</v>
+        <v>140</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1732,56 +1836,56 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I10" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1789,56 +1893,56 @@
         <v>0</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>136</v>
+      <c r="H12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1846,51 +1950,108 @@
         <v>0</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G20" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="H20" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>149</v>
+      <c r="I20" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
-    <sheet name="Контрагенти" sheetId="4" r:id="rId2"/>
+    <sheet name="Контрагенти" sheetId="13" r:id="rId2"/>
     <sheet name="Баланс" sheetId="6" r:id="rId3"/>
     <sheet name="Прибуток" sheetId="7" r:id="rId4"/>
     <sheet name="ЄСВ" sheetId="8" r:id="rId5"/>
@@ -36,14 +36,6 @@
     <t>НОМЕНКЛАТУРА</t>
   </si>
   <si>
-    <t>ОБСЯГ З ПДВ,
-тис. грн.</t>
-  </si>
-  <si>
-    <t>ПДВ,
-тис. грн.</t>
-  </si>
-  <si>
     <t>{r21taxpay.name}</t>
   </si>
   <si>
@@ -87,9 +79,6 @@
   </si>
   <si>
     <t>{pdv_act_r.dat_reestr}</t>
-  </si>
-  <si>
-    <t>Контрагенти - кредит</t>
   </si>
   <si>
     <t>Код платника</t>
@@ -275,40 +264,10 @@
     <t>[SH.IS_ACTUAL]</t>
   </si>
   <si>
-    <t>[T1.N]</t>
-  </si>
-  <si>
-    <t>[T1.STI]</t>
-  </si>
-  <si>
-    <t>{T1.OBS_SUM}</t>
-  </si>
-  <si>
-    <t>{T1.PDV_SUM}</t>
-  </si>
-  <si>
-    <t>{T2.OBS_SUM}</t>
-  </si>
-  <si>
-    <t>{T2.PDV_SUM}</t>
-  </si>
-  <si>
     <t>[T1.TIN]</t>
   </si>
   <si>
     <t>[T1.NAME]</t>
-  </si>
-  <si>
-    <t>[T1.VIDS]</t>
-  </si>
-  <si>
-    <t>[T1.OBS]</t>
-  </si>
-  <si>
-    <t>[T1.PDV]</t>
-  </si>
-  <si>
-    <t>[T1.NOM]</t>
   </si>
   <si>
     <t>[T2.N]</t>
@@ -544,6 +503,45 @@
   </si>
   <si>
     <t>Об’єкт оподаткування (р04)</t>
+  </si>
+  <si>
+    <t>{T2.OBS_SUM}</t>
+  </si>
+  <si>
+    <t>{T2.PDV_SUM}</t>
+  </si>
+  <si>
+    <t>Контрагенти - кредит</t>
+  </si>
+  <si>
+    <t>[T1.N]</t>
+  </si>
+  <si>
+    <t>[T1.STI]</t>
+  </si>
+  <si>
+    <t>[T1.VIDS]</t>
+  </si>
+  <si>
+    <t>[T1.OBS]</t>
+  </si>
+  <si>
+    <t>[T1.PDV]</t>
+  </si>
+  <si>
+    <t>[T1.NOM]</t>
+  </si>
+  <si>
+    <t>{T1.OBS_SUM}</t>
+  </si>
+  <si>
+    <t>{T1.PDV_SUM}</t>
+  </si>
+  <si>
+    <t>ОБСЯГ</t>
+  </si>
+  <si>
+    <t>ПДВ</t>
   </si>
 </sst>
 </file>
@@ -659,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,9 +668,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1074,192 +1069,192 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="3.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1281,161 +1276,153 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="83.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H7" s="31" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1461,126 +1448,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="T1" s="7" t="s">
-        <v>77</v>
+      <c r="T1" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="O3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="Q3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="R3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="S3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="T3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="26" t="s">
+    </row>
+    <row r="4" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="D4" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="S4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1600,104 +1587,104 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="7.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="19" customWidth="1"/>
-    <col min="10" max="11" width="11" style="19" customWidth="1"/>
-    <col min="12" max="13" width="10" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="4.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10" max="11" width="11" style="18" customWidth="1"/>
+    <col min="12" max="13" width="10" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M1" s="7" t="s">
-        <v>110</v>
+      <c r="M1" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M2" s="7" t="s">
-        <v>111</v>
+      <c r="M2" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>170</v>
+      <c r="E4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>166</v>
+      <c r="H5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1714,41 +1701,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="7" t="s">
-        <v>113</v>
+      <c r="E1" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1752,9 @@
   </sheetPr>
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1780,278 +1770,278 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="27"/>
-      <c r="E2" s="7" t="s">
-        <v>120</v>
+      <c r="C2" s="26"/>
+      <c r="E2" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="30"/>
+      <c r="C3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="7" t="s">
-        <v>122</v>
+      <c r="I6" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>124</v>
+      <c r="C7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>97</v>
+        <v>116</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="7" t="s">
-        <v>154</v>
+      <c r="I10" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>124</v>
+      <c r="C11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="7" t="s">
-        <v>153</v>
+      <c r="I14" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>124</v>
+      <c r="C15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="7" t="s">
-        <v>142</v>
+      <c r="I18" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>124</v>
+      <c r="C19" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -93,9 +93,6 @@
     <t>{dt1} - {dt2}</t>
   </si>
   <si>
-    <t>Контрагенти - зобов’язання</t>
-  </si>
-  <si>
     <t>{r21taxpay.kved_name}</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>{T2.PDV_SUM}</t>
   </si>
   <si>
-    <t>Контрагенти - кредит</t>
-  </si>
-  <si>
     <t>[T1.N]</t>
   </si>
   <si>
@@ -538,10 +532,16 @@
     <t>{T1.PDV_SUM}</t>
   </si>
   <si>
-    <t>ОБСЯГ</t>
+    <t>Контрагенти - кредит (тис.грн.)</t>
+  </si>
+  <si>
+    <t>Контрагенти - зобов’язання (тис.грн.)</t>
   </si>
   <si>
     <t>ПДВ</t>
+  </si>
+  <si>
+    <t>ОБСЯГ З ПДВ</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +746,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1110,15 +1113,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1127,15 +1130,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1158,69 +1161,69 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="D11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="D14" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1228,33 +1231,33 @@
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1286,138 +1289,138 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="52.140625" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="82.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1452,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
@@ -1457,117 +1460,117 @@
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1603,88 +1606,88 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="I4" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="G5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="35" t="s">
+      <c r="I5" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="J5" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>152</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1711,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1716,27 +1719,27 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1775,7 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="26"/>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1780,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>10</v>
@@ -1792,33 +1795,33 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>81</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1826,56 +1829,56 @@
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1883,56 +1886,56 @@
         <v>0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1940,56 +1943,56 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>113</v>
-      </c>
       <c r="I15" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="27" t="s">
         <v>148</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1997,51 +2000,51 @@
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>139</v>
-      </c>
       <c r="I20" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/xls/pasport/template.xlsx
+++ b/xls/pasport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>2_Пасиви А1495</t>
   </si>
   <si>
-    <t>2_Пасиви А1B95</t>
-  </si>
-  <si>
     <t>3_Довгострокові зобов'язання А1595</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>ОБСЯГ З ПДВ</t>
+  </si>
+  <si>
+    <t>2_Пасиви Б1495</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1245,19 +1245,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1281,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1295,7 +1295,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,10 +1315,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>4</v>
@@ -1326,41 +1326,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="31" t="s">
         <v>164</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>26</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>4</v>
@@ -1391,36 +1391,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1452,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
@@ -1481,96 +1481,96 @@
         <v>42</v>
       </c>
       <c r="J3" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1606,12 +1606,12 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
@@ -1625,69 +1625,69 @@
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="I4" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="G5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="35" t="s">
+      <c r="I5" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="J5" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>151</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1711,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1719,27 +1719,27 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1755,9 +1755,7 @@
   </sheetPr>
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1775,7 +1773,7 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="26"/>
       <c r="E2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1783,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>10</v>
@@ -1795,33 +1793,33 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>80</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1829,56 +1827,56 @@
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1886,56 +1884,56 @@
         <v>0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1943,56 +1941,56 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>112</v>
-      </c>
       <c r="I15" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -2000,51 +1998,51 @@
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>138</v>
-      </c>
       <c r="I20" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
